--- a/意向总结/result_yixiang/意向09月_对比_下.xlsx
+++ b/意向总结/result_yixiang/意向09月_对比_下.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,6 +50,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -65,74 +66,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -425,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T75"/>
+  <dimension ref="A1:T57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,22 +472,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>烟台山医院</t>
+          <t>济南儿童医院</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>济南惠晨医疗公司</t>
+          <t>济南威斯拓</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>eicu</t>
+          <t>麻醉科</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>王主任</t>
+          <t>胡主任那</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -562,17 +495,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>急诊申请采购一台，计划基本通过。</t>
+          <t>主任已报申请，代理商想找院领导今年就操作。</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -581,11 +514,11 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>IV.四季度</t>
+          <t>V.明年</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -593,7 +526,11 @@
           <t>董斌</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
       <c r="T2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -605,40 +542,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>山东省立医院</t>
+          <t>青州市益都中心人民医院</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>济南惠晨医疗公司</t>
+          <t>济南威斯拓</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>创伤科</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>季主任</t>
-        </is>
-      </c>
+          <t>胸外科</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>创伤重症科申请了一台血流</t>
+          <t>近期院内上会讨论。</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -647,11 +580,11 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>V.明年</t>
+          <t>IV.四季度</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -659,7 +592,11 @@
           <t>董斌</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
       <c r="T3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -671,35 +608,35 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>千佛山医院</t>
+          <t>山东省耳鼻喉医院</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>济南惠晨医疗公司</t>
+          <t>济南威斯拓</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>icu</t>
+          <t>呼吸课</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>姜主任</t>
+          <t>张才擎</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>千佛山医院共申请三台（重症两台，picu一台）</t>
+          <t>张主任今年提交申请</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -713,7 +650,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -725,7 +662,11 @@
           <t>董斌</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -737,22 +678,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>临沂市人民医院</t>
+          <t>毓璜顶医院</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>济南惠晨医疗公司</t>
+          <t>济南威斯拓</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>儿童重症可</t>
+          <t>耳鼻喉</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>周主任</t>
+          <t>宋主任</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -760,17 +701,17 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>计划已经通过，等待招标</t>
+          <t>麻醉科没有走通，目前开始走耳鼻喉科提交申请。</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -783,7 +724,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>IV.四季度</t>
+          <t>V.明年</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -791,7 +732,11 @@
           <t>董斌</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -803,22 +748,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>济宁人民医院</t>
+          <t>山东省胸科医院</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>济南惠晨医疗公司</t>
+          <t>济南威斯拓</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>麻醉科</t>
+          <t>麻醉</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>宋主任</t>
+          <t>李克忠</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -826,12 +771,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>参数已经提交到设备科，但是招标时间不确定</t>
+          <t>麻醉科李主任提交采购申请，预算200万</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -845,11 +790,11 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>III.三季度</t>
+          <t>V.明年</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -857,12 +802,12 @@
           <t>董斌</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>情况描述变化</t>
-        </is>
-      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -873,22 +818,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>垦利县人民医院</t>
+          <t>山东省立医院</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>济南惠晨医疗公司</t>
+          <t>济南威斯拓</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>重症科</t>
+          <t>呼吸课</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>高主任</t>
+          <t>姜淑娟</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -901,12 +846,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>试用了设备，主任提交申请通过，等待招标，预计年底</t>
+          <t>进口设备采购全部暂停，</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -915,7 +860,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -927,7 +872,11 @@
           <t>董斌</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
       <c r="T7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -939,22 +888,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>滨州医学院烟台院区</t>
+          <t>潍坊中医院</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>济南惠晨医疗公司</t>
+          <t>济南威斯拓</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>麻醉科</t>
+          <t>呼吸科</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>贾主任</t>
+          <t>郑主任</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -962,17 +911,17 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>预算申报错了，重新申报</t>
+          <t>介入手术的大夫正在王洪武医院学习，学习完了组织招标。</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -981,11 +930,11 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>IV.四季度</t>
+          <t>V.明年</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -993,38 +942,38 @@
           <t>董斌</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>情况描述变化</t>
-        </is>
-      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天津市儿童医院</t>
+          <t>临沂市人民医院</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>暂无</t>
+          <t>济南威斯拓</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CCU</t>
+          <t>麻醉科</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>李主任</t>
+          <t>刘心国</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1032,38 +981,26 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>目前最新情况，院里目前没有启动，主任表示现在还是不会有大的设备采购，时间暂时推迟到四季度（九月跟进情况：院里的采购还是紧着必需物资设备，主任表示虽然计划还在，但是今年难采）</t>
+          <t>今年申请一台，正在走手续，预计今年采购</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>张处长</t>
-        </is>
-      </c>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>因疫情影响预算，应该在年底前可能采购（今年重新计划，明年采购）</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>23</v>
-      </c>
-      <c r="O9" t="n">
-        <v>55</v>
-      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1072,41 +1009,41 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>杨照</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>情况描述变化</t>
-        </is>
-      </c>
+          <t>董斌</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>湖南省湘雅附二</t>
+          <t>淄博中心医院</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>海药鸿星堂</t>
+          <t>济南威斯拓</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>老年ICU</t>
+          <t>麻醉科</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>杨主任</t>
+          <t>冯念海</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1119,33 +1056,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>目前按计划是采购四台，超过100万要送国家卫健委做进口论证，故降低单价，两台一采，时间周期会拉长（九月27日完成前两批，十一后预计开始）</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>李主任</t>
-        </is>
-      </c>
+          <t>计划已经通过党委会，195万预算，预计10月挂网</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>再次跟科室及设备科进行设备情况论证</t>
-        </is>
-      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>未定</t>
-        </is>
-      </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1154,41 +1075,41 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>杨照</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>情况描述变化</t>
-        </is>
-      </c>
+          <t>董斌</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>湖南省湘雅附三</t>
+          <t>千佛山医院</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>湖南海药鸿星堂</t>
+          <t>济南威斯拓</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>重症</t>
+          <t>麻醉科</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>何主任</t>
+          <t>王月兰</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1201,60 +1122,50 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>8月疫情影响，三季度推迟到国庆后，等正常流程完成领导签字，即招标</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+          <t>主任已经提交明年的申请190万 预算</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>设备科暂无新情况，经销商跟进中</t>
-        </is>
-      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="n">
-        <v>55</v>
-      </c>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
         <v>80</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>IV.四季度</t>
+          <t>V.明年</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>杨照</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>情况描述变化</t>
-        </is>
-      </c>
+          <t>董斌</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>湖南省湘雅附一</t>
+          <t>北辰医院</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>湖南海药鸿兴堂</t>
+          <t>鼎燊</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1264,7 +1175,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>王主任</t>
+          <t>刘晓东</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1272,44 +1183,38 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>计划中，采购时间可能在明年（无变化）</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>王科长</t>
-        </is>
-      </c>
+          <t>已报计划，等医院通知</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
-        <v>55</v>
-      </c>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>60</v>
+        <v>0.5</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>IV.四季度</t>
+          <t>V.明年</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>杨照</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr"/>
+          <t>贾宇鑫</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
       <c r="T12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -1317,26 +1222,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>北京石景山医院</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>北京毅明</t>
-        </is>
-      </c>
+          <t>浙江省肿瘤医院</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ICU</t>
+          <t>麻醉科</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>耿主任</t>
+          <t>吴主任</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1344,75 +1245,65 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>在做进口论证审批，招标时间有可能延迟（加收审批材料，等区卫健委通过论证）</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+          <t>去年申报计划未批，已重新申报2022年计划</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>已过会</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>95</v>
+      </c>
       <c r="O13" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="P13" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>IV.四季度</t>
+          <t>V.明年</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>杨照</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>情况描述变化</t>
-        </is>
-      </c>
+          <t>武思慧</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>三博脑科</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>鼎盛</t>
-        </is>
-      </c>
+          <t>温州医科大学附属第二医院</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>麻醉</t>
+          <t>麻醉科</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>孙永兴</t>
+          <t>林主任</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1420,34 +1311,42 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>等待采购</t>
+          <t>已申报2022年设备计划，后续安排样机试用</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>95</v>
+      </c>
+      <c r="O14" t="n">
+        <v>210</v>
+      </c>
       <c r="P14" t="n">
-        <v>0.6</v>
+        <v>50</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>IV.四季度</t>
+          <t>V.明年</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>贾宇鑫</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr"/>
+          <t>武思慧</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
       <c r="T14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1455,39 +1354,35 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>顺义区中医院</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>广合元德</t>
-        </is>
-      </c>
+          <t>宁波李惠利医院</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ICU</t>
+          <t>麻醉科/呼吸科</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>肖春阳</t>
+          <t>潘主任/吴主任</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>科室之前报了4台picco共计136万，主任想改成我们设备，目前先凑150万买三台，之后还有钱的话再补一台</t>
+          <t>高频呼吸机产品已经试用，麻醉科和呼吸科主任对设备都比较认可，医院一般是下半年开始申报计划，接洽中，预上明年报告</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1496,20 +1391,18 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
-      <c r="P15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>IV.四季度</t>
-        </is>
-      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>贾宇鑫</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr"/>
+          <t>武思慧</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
       <c r="T15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1517,26 +1410,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>通州区中西医结合医院</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>毅明</t>
-        </is>
-      </c>
+          <t>浙江大学附属第二医院</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>麻醉</t>
+          <t>呼吸/麻醉科</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>张胜利</t>
+          <t>徐浩/严敏</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1544,74 +1433,78 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>已报计划，等待招标</t>
+          <t>报告要麻醉科点头，临床徐主任的意思是他这边看能跟麻醉科搭上线到时候引荐我们认识，发展合适经销商持续跟进</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>95</v>
+      </c>
+      <c r="O16" t="n">
+        <v>200</v>
+      </c>
       <c r="P16" t="n">
-        <v>0.6</v>
+        <v>60</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>IV.四季度</t>
+          <t>V.明年</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>贾宇鑫</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>预计招标时间变化</t>
-        </is>
-      </c>
+          <t>武思慧</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>嘉兴妇幼保健院</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>嘉兴恒巨</t>
-        </is>
-      </c>
+          <t>浙江大学附属第一医院</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>麻醉</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+          <t>呼吸科</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>马文江</t>
+        </is>
+      </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>样机已试用，临床对机器和参数都比较满意，前期医院报告已经批下来，年后院内又重新调整预算缩减，等医院申报明年计划</t>
+          <t>机器已经试用过，临床对机器很认可，计划手术室已经报上去，经销商反馈信息报告还没有上会，等院内讨论了以后配合经销商进行推进</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1619,17 +1512,17 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="O17" t="n">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="P17" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>V.明年</t>
+          <t>IV.四季度</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1637,7 +1530,11 @@
           <t>武思慧</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1645,35 +1542,35 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>嘉兴武警医院</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>嘉兴刚子</t>
-        </is>
-      </c>
+          <t>浙江省儿童医院</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>麻醉</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+          <t>耳鼻喉科</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>付主任</t>
+        </is>
+      </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>嘉兴经销商报单，部队医院项目暂缓，后续主要协助经销商和临床产品介绍工作</t>
+          <t>临床报明年计划因医院预算有限，没有申购，等后面再找合适机会</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1681,17 +1578,17 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="O18" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="P18" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>IV.四季度</t>
+          <t>V.明年</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1699,7 +1596,11 @@
           <t>武思慧</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1707,35 +1608,35 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>余杭第一医院</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>杭州玖健</t>
-        </is>
-      </c>
+          <t>浙江台州恩泽医院</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>麻醉</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>麻醉科</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>王主任</t>
+        </is>
+      </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>年后院内重新调整预算缩减，血流项目暂缓，等医院申报明年计划</t>
+          <t>主任对我们机器认可，临床填报计划已审批，经销商跟进中</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1743,17 +1644,17 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="O19" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="P19" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>V.明年</t>
+          <t>IV.四季度</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1761,7 +1662,11 @@
           <t>武思慧</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
       <c r="T19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1769,50 +1674,44 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>温州市人民医院</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>高总</t>
-        </is>
-      </c>
+          <t>衢州人民医院</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ICU</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+          <t>呼吸</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>陈院长</t>
+        </is>
+      </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>前期和经销商一起拜访客户，临床对设备认可，已申购明年设备计划，近期希望把样机拿过去和他们使用一下</t>
+          <t>科室之前预算50买高频呼吸机，因为我们和预算相差太大，最后临床先买了其他品牌，陈院长过去现在要大力发展呼吸介入，科室今年主要先买一些必须的设备，高频先暂时再放一放</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
-        <v>25</v>
-      </c>
-      <c r="O20" t="n">
-        <v>50</v>
-      </c>
-      <c r="P20" t="n">
-        <v>30</v>
-      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
           <t>V.明年</t>
@@ -1835,20 +1734,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>浙江省人民医院</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>湖州中心医院</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>上海潺亭</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>急诊科</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+          <t>呼吸</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>王主任</t>
+        </is>
+      </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
@@ -1859,22 +1766,16 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>科室已申报2022年设备计划</t>
+          <t>前期跟进临床对设备认可，考虑申报22年计划，已协助临床填写22年计划报告</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
-        <v>30</v>
-      </c>
-      <c r="O21" t="n">
-        <v>65</v>
-      </c>
-      <c r="P21" t="n">
-        <v>50</v>
-      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
           <t>V.明年</t>
@@ -1885,7 +1786,11 @@
           <t>武思慧</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr"/>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1893,26 +1798,26 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>邵逸夫医院</t>
+          <t>南昌大学第二附属医院</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>杭州玖健</t>
+          <t>怡创医疗</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ICU</t>
+          <t>呼吸科</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>潘</t>
+          <t>叶小萍</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1925,20 +1830,38 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>和经销商拜访客户，临床对新款血流有意向，想先试用过再考虑上报告计划</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
+          <t>找了怡创的郝总进行跟进，和叶主任做有效沟通。</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>120万</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>240万</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>IV.四季度</t>
+        </is>
+      </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>武思慧</t>
+          <t>李想</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -1953,30 +1876,30 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>南昌大学第三附属医院</t>
+          <t>江西省人民医院</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>江西彼岸医疗科技有限公司</t>
+          <t>南昌讯康医疗器械</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ICU</t>
+          <t>呼吸与危重症</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>万建国</t>
+          <t>肖祖克</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1985,7 +1908,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>主任全力支持我们产品，已经上了2台报告等医院领导批。</t>
+          <t>找主任上明年呼吸机采购计划，价格按280万上预算计划。</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1994,28 +1917,24 @@
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>牛院长</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>27万左右</t>
+          <t>100万</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>120万</t>
+          <t>280万</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>60</v>
+        <v>0.7</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>IV.四季度</t>
+          <t>V.明年</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2023,7 +1942,11 @@
           <t>李想</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -2031,32 +1954,30 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>江西省妇幼保健院</t>
+          <t>江西省人民医院</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>江西彼岸医疗科技有限公司</t>
+          <t>潺亭</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>麻醉科</t>
+          <t>胸外科</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>周群</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2台</t>
-        </is>
+          <t>徐权</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2065,7 +1986,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>做了主任工作，上了2台mostcare设备采购计划已经上报给医院。</t>
+          <t>徐全主任同意上报告，总代朱总在和主任定设备详细配置和预算。主任让我写好了报告发给他。</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2074,24 +1995,20 @@
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>李增明</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>不确定</t>
+          <t>100万</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>120万</t>
+          <t>280万</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2103,38 +2020,38 @@
           <t>李想</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>把握度变化</t>
-        </is>
-      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>石城县人民医院</t>
+          <t>赣州市第五人民医院</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>汇仁医药</t>
+          <t>潺亭</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>麻醉科</t>
+          <t>呼吸科</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>温美庆</t>
+          <t>刘春云</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2142,12 +2059,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>经销商在继续跟进。</t>
+          <t>主任对产品有一定兴趣，和经销商正在配合上报告阶段。</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2155,29 +2072,21 @@
           <t>否</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>朱主任</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>汪洋</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>27万左右</t>
+          <t>100万</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>55万</t>
+          <t>240万</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2189,77 +2098,61 @@
           <t>李想</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>预计招标时间变化</t>
-        </is>
-      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>南昌大学第二附属医院</t>
+          <t>上海长海医院</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>江西滨旭医疗器械</t>
+          <t>上海友合</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>麻醉科</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>余树春</t>
-        </is>
-      </c>
+          <t>呼吸科</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
         <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>等待设备试用</t>
+          <t>重新上报告</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>敖处长</t>
-        </is>
-      </c>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>27万左右</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>55万</t>
-        </is>
-      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2268,43 +2161,39 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>李想</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>把握度变化</t>
-        </is>
-      </c>
+          <t>徐明月</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>江西省儿童医院</t>
+          <t>东南大学附属中大医院</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>江西俊池医疗</t>
+          <t>上海潺亭</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>麻醉科</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>胡主任</t>
-        </is>
-      </c>
+          <t>呼吸科</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
         <v>1</v>
       </c>
@@ -2315,35 +2204,19 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>等设备发出到经销商。</t>
+          <t xml:space="preserve">己安装 </t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>黄主任</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>陶强</t>
-        </is>
-      </c>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>25万</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>40-45万</t>
-        </is>
-      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
         <v>80</v>
       </c>
@@ -2354,43 +2227,39 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>李想</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>情况描述变化</t>
-        </is>
-      </c>
+          <t>徐明月</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>江西省人民医院</t>
+          <t>上海市中山医院</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>南昌讯康医疗器械</t>
+          <t>上海潺亭</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>麻醉科</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>张明生主任</t>
-        </is>
-      </c>
+          <t>呼吸科</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
         <v>1</v>
       </c>
@@ -2401,33 +2270,21 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>医院内部管理层进行调整，主任同意上报告。</t>
+          <t>重新上报告</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>王文厅</t>
-        </is>
-      </c>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>25万</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>45万</t>
-        </is>
-      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2436,146 +2293,126 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>李想</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>预计招标时间变化</t>
-        </is>
-      </c>
+          <t>徐明月</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>江西省胸科医院</t>
+          <t>赣南医院学附属医院</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>江西俊池医疗</t>
+          <t>上海潺亭</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>麻醉科</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>王主任</t>
-        </is>
-      </c>
+          <t>呼吸科</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
         <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>等待设备试用</t>
+          <t>在做进口论证申请</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
-        <v>23</v>
-      </c>
-      <c r="O29" t="n">
-        <v>45</v>
-      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>V.明年</t>
+          <t>IV.四季度</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>李想</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>情况描述变化</t>
-        </is>
-      </c>
+          <t>徐明月</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>江西省中医院</t>
+          <t>江西省胸科医院</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>江西俊池医疗</t>
+          <t>上海潺亭</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>麻醉科</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>王主任</t>
-        </is>
-      </c>
+          <t>呼吸科</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
         <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>已经上了报告等医院批复</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+          <t>提交报告</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
-        <v>23</v>
-      </c>
-      <c r="O30" t="n">
-        <v>55</v>
-      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2584,15 +2421,15 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>李想</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>情况描述变化</t>
-        </is>
-      </c>
+          <t>徐明月</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2603,61 +2440,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>江西省人民医院</t>
+          <t>常州市第二人民医院</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>南昌讯康医疗器械</t>
+          <t>上海潺亭</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>儿科</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>孙乐柯</t>
-        </is>
-      </c>
+          <t>呼吸科</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
         <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>主任有意向购买一台准用于儿童的血流动力学设备</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>王文厅</t>
-        </is>
-      </c>
+          <t>重新做上层工作</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>25万</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>45万</t>
-        </is>
-      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2666,7 +2483,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>李想</t>
+          <t>徐明月</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2681,21 +2498,21 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>盐城第三人民医院</t>
+          <t>南京江宁医院</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>南京佰福源</t>
+          <t>上海潺亭</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>麻醉科</t>
+          <t>呼吸科</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2709,7 +2526,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>项目暂停</t>
+          <t>主任同意再催促医院采购</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -2719,11 +2536,11 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>V.明年</t>
+          <t>IV.四季度</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2731,33 +2548,33 @@
           <t>徐明月</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>预计招标时间变化</t>
-        </is>
-      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>南通市中医院</t>
+          <t>苏州大学附属第一医院</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>南京朗健医疗</t>
+          <t>上海潺亭</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ICU</t>
+          <t>呼吸科</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2766,12 +2583,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>预算不足</t>
+          <t>等待安排采购</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -2781,7 +2598,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -2793,7 +2610,11 @@
           <t>徐明月</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr"/>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
       <c r="T33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -2801,21 +2622,21 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>张家港中医院</t>
+          <t>安医大一附院</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>苏州有实医疗</t>
+          <t>安徽耀韬</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>麻醉科</t>
+          <t>呼吸科</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2824,12 +2645,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>等待上会讨论</t>
+          <t>科内讨论已通过</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -2839,7 +2660,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -2851,7 +2672,11 @@
           <t>徐明月</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -2859,21 +2684,21 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>南京脑科医院</t>
+          <t>安医大二附院</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>南京朗健医疗</t>
+          <t>上海潺亭</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>麻醉科</t>
+          <t>呼吸科</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2887,7 +2712,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>脑科胸科医院合并，设备会未开</t>
+          <t>重新上报告</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -2897,11 +2722,11 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>IV.四季度</t>
+          <t>V.明年</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -2909,7 +2734,11 @@
           <t>徐明月</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr"/>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
       <c r="T35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -2917,21 +2746,21 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>南通市妇保院</t>
+          <t>合肥市第二人民医院</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>南京朗健医疗</t>
+          <t>上海潺亭</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>麻醉科</t>
+          <t>呼吸科</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2945,7 +2774,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>在做相关工作</t>
+          <t>重新上报告</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -2955,11 +2784,11 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>IV.四季度</t>
+          <t>V.明年</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -2967,7 +2796,11 @@
           <t>徐明月</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr"/>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
       <c r="T36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -2975,21 +2808,21 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>无锡市第二人民医院</t>
+          <t>无锡市第五人民医院</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>南京易嘉康</t>
+          <t>上海飞鸿</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>麻醉科</t>
+          <t>呼吸科</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -3003,21 +2836,17 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>设备科完成一轮询价</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
+          <t xml:space="preserve">己采购，准备安装 </t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3029,7 +2858,11 @@
           <t>徐明月</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr"/>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
       <c r="T37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -3037,21 +2870,21 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>苏州吴江人民医院</t>
+          <t>安医大附四院</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>南京朗健医疗</t>
+          <t>安徽耀韬</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>麻醉科</t>
+          <t>呼吸科</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -3060,30 +2893,26 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>在跟采购中心沟通限制问题，医院要跟主管部门反映</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
+          <t>提交报告</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>IV.四季度</t>
+          <t>V.明年</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3091,28 +2920,28 @@
           <t>徐明月</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>情况描述变化</t>
-        </is>
-      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>苏州吴中区人民医院</t>
+          <t>徐州市儿童医院</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>苏州百谷鹤</t>
+          <t>上海潺亭</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3131,7 +2960,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>未上会</t>
+          <t>院领导和科室有调整</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -3145,7 +2974,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>IV.四季度</t>
+          <t>V.明年</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3153,7 +2982,11 @@
           <t>徐明月</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr"/>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -3161,17 +2994,21 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>上海新华医院</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>复旦大学附属儿科医院</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>上海潺亭</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>儿科</t>
+          <t>喉外科</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -3180,12 +3017,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>提交申请</t>
+          <t>提交报告</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -3199,7 +3036,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>IV.四季度</t>
+          <t>V.明年</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3207,33 +3044,33 @@
           <t>徐明月</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>情况描述变化</t>
-        </is>
-      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>扬州妇幼保健院</t>
+          <t>南通大学附属第二医院</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>南京朗健医疗</t>
+          <t>南京易嘉康</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>新生儿</t>
+          <t>呼吸科</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -3242,26 +3079,30 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>暂未组织询标</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr"/>
+          <t>重新上报告</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>IV.四季度</t>
+          <t>V.明年</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3269,33 +3110,33 @@
           <t>徐明月</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>情况描述变化</t>
-        </is>
-      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>安医附属巢湖医院</t>
+          <t>江西省肿瘤医院</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>安徽浦康</t>
+          <t>上海飞鸿</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ICU</t>
+          <t>肿瘤内科</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -3307,11 +3148,7 @@
           <t>C</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>提交参数</t>
-        </is>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
@@ -3323,7 +3160,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>IV.四季度</t>
+          <t>V.明年</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3331,7 +3168,11 @@
           <t>徐明月</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr"/>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
       <c r="T42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -3339,21 +3180,21 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>弋矶山医院皖南急救中心</t>
+          <t>上海市五官科医院</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>安徽浦康</t>
+          <t>上海飞鸿</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ICU</t>
+          <t>麻醉科</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -3365,11 +3206,7 @@
           <t>C</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>己报名</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
@@ -3381,7 +3218,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>IV.四季度</t>
+          <t>V.明年</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3389,7 +3226,11 @@
           <t>徐明月</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr"/>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -3397,16 +3238,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>安徽省胸科医院</t>
+          <t>上海肺科医院</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>安徽浦康</t>
+          <t>上海智慧湾</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3425,7 +3266,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>新款沟通中</t>
+          <t>初步审批通过</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -3435,11 +3276,11 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>IV.四季度</t>
+          <t>V.明年</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3447,77 +3288,73 @@
           <t>徐明月</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>情况描述变化</t>
-        </is>
-      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>304医院</t>
+          <t>江苏省第二中医院</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>北京博络灵</t>
+          <t>上海飞鸿</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>呼吸科</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>王海燕</t>
-        </is>
-      </c>
+          <t>肺病科</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
         <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>已中标</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+          <t>第一次院内讨论通过</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>I.一季度</t>
+          <t>V.明年</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>王兴龙</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr"/>
+          <t>徐明月</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
     </row>
     <row r="46">
@@ -3525,65 +3362,61 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>阳煤集团总医院</t>
+          <t>镇江市第一人民医院</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>山西恒润泰</t>
+          <t>上海飞鸿</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>麻醉科</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>李斌</t>
-        </is>
-      </c>
+          <t>呼吸科</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="n">
         <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>已中标</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
+          <t>重新上报告</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>I.一季度</t>
+          <t>V.明年</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>王兴龙</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr"/>
+          <t>徐明月</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -3591,26 +3424,26 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>军区总医院</t>
+          <t>山西医科大学第一医院</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>北京毅明</t>
+          <t>山西恒瑞泰</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>麻醉科</t>
+          <t>呼吸科</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>马亚群</t>
+          <t>张新日</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -3618,12 +3451,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>已中标</t>
+          <t>主任更换，正在做工作</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3636,20 +3469,18 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
-      <c r="P47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>I.一季度</t>
-        </is>
-      </c>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
           <t>王兴龙</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr"/>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
       <c r="T47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -3657,26 +3488,26 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>北京电力医院</t>
+          <t>同煤集团总医院</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>上海仁恒商贸</t>
+          <t>山西恒瑞泰</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>心内科</t>
+          <t>呼吸科</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>张蛟</t>
+          <t>赵海</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -3684,12 +3515,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>已中标</t>
+          <t>内部招标，预计四季度完成</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3703,11 +3534,11 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>II.二季度</t>
+          <t>IV.四季度</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -3715,7 +3546,11 @@
           <t>王兴龙</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr"/>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -3723,11 +3558,11 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>山西大医院</t>
+          <t>太原四院</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3737,12 +3572,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ICU</t>
+          <t>内镜中心</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>武卫东</t>
+          <t>王建伟</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -3755,14 +3590,10 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>院内采购暂停，12月份预计会采购一批设备</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+          <t>已报计划，经销商已做院内工作</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
@@ -3773,7 +3604,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>IV.四季度</t>
+          <t>V.明年</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -3781,23 +3612,23 @@
           <t>王兴龙</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>情况描述变化</t>
-        </is>
-      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>太钢总医院</t>
+          <t>山大二院</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3807,12 +3638,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ICU</t>
+          <t>呼吸科</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>刘祯干</t>
+          <t>李建强</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -3825,25 +3656,21 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>院长更换，等待招标时间</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+          <t>等待院内审批</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>IV.四季度</t>
+          <t>V.明年</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -3851,38 +3678,34 @@
           <t>王兴龙</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>预计招标时间变化</t>
-        </is>
-      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>北京市第六医院</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>北京毅明</t>
-        </is>
-      </c>
+          <t>北京天坛医院</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>麻醉科</t>
+          <t>呼吸</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>田芳玲</t>
+          <t>张杰</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -3890,69 +3713,59 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>C+T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>政府拨款未到位，等待通知</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+          <t>主任对产品认可，去年已经报过，没有批。近期跟主任沟通，张主任不愿报</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
-      <c r="P51" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>IV.四季度</t>
-        </is>
-      </c>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>王兴龙</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>情况描述变化</t>
-        </is>
-      </c>
+          <t>郭孟蛟</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>北京康复医院</t>
+          <t>北京博爱医院</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>北京毅明</t>
+          <t>北京东信祥和科贸</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>麻醉科</t>
+          <t>呼吸</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>卢爱新</t>
+          <t>高炜</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -3960,69 +3773,55 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>已报十四五的采购计划，目前暂未启动</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+          <t>科室马上就上高清治疗镜系统，跟主任介绍了高频可作为硬镜使用，主任比较认可</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
-      <c r="P52" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>IV.四季度</t>
-        </is>
-      </c>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>王兴龙</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>情况描述变化</t>
-        </is>
-      </c>
+          <t>郭孟蛟</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>临汾中心医院</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>山西恒润泰</t>
-        </is>
-      </c>
+          <t>河北省胸科医院</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>心外科</t>
+          <t>呼吸二科</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>刘辉</t>
+          <t>李幸彬</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -4030,12 +3829,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>G</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>新楼采购计划，预计年底招标</t>
+          <t>因为疫情原因，采购暂停</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4049,16 +3848,16 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>IV.四季度</t>
+          <t>四季度</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>王兴龙</t>
+          <t>梁小东</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -4073,26 +3872,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>北京天坛医院</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>北京冠昱合科技</t>
-        </is>
-      </c>
+          <t>潞河医院</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>心外</t>
+          <t>呼吸中心</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>徐东</t>
+          <t>李晓辉</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -4105,54 +3900,64 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>主任在等科研经费，批下来的话可以尽快采购</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr"/>
+          <t>主任已有意向</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
+      <c r="P54" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>明年</t>
+        </is>
+      </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>郭孟蛟</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>情况描述变化</t>
-        </is>
-      </c>
+          <t>梁小东</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>积水潭医院</t>
+          <t>吉大二院</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>北京冠昱合科技</t>
+          <t>精创/泰斯特</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>急诊</t>
+          <t>呼吸科</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>田兆兴</t>
+          <t>张捷，尹金植</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -4160,59 +3965,73 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>已经跟主任沟通了意向，十月份会跟院长确定最终的计划</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr"/>
+          <t>等待招标，经销商与院里沟通后答复1.5亿项目四季度可以招标</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
+      <c r="N55" t="n">
+        <v>105</v>
+      </c>
+      <c r="O55" t="n">
+        <v>200</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>IV.四季度</t>
+        </is>
+      </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>郭孟蛟</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>情况描述变化</t>
-        </is>
-      </c>
+          <t>段玉晶</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>积水潭医院</t>
+          <t>吉大一院</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>北京冠昱合科技</t>
+          <t>国药</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>麻醉</t>
+          <t>小儿呼吸介入中心</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>王庚</t>
+          <t>孟繁峥</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -4220,28 +4039,46 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>主任认可产品已经报过计划，院里预算批的少</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr"/>
+          <t>主任介绍代理商，小儿呼吸介入中心成立采购，等待论证与招标，进口论证中。</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
+      <c r="N56" t="n">
+        <v>144</v>
+      </c>
+      <c r="O56" t="n">
+        <v>288</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>IV.四季度</t>
+        </is>
+      </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>郭孟蛟</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr"/>
+          <t>段玉晶</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
       <c r="T56" t="inlineStr"/>
     </row>
     <row r="57">
@@ -4249,1228 +4086,74 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>积水潭医院</t>
+          <t>友谊医院</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>北京冠昱合科技</t>
+          <t>昌盛</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>心内</t>
+          <t>呼吸、耳鼻喉</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>刘巍</t>
+          <t>王浩彦，姚志刚，龚树生，李革临</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>主任是上半年安贞过来的，对产品感兴趣，有需求</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr"/>
+          <t>呼吸和耳鼻喉都已报计划，但缺乏资金，需要做院里工作</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
+      <c r="N57" t="n">
+        <v>51</v>
+      </c>
+      <c r="O57" t="n">
+        <v>200</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>V.明年</t>
+        </is>
+      </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>郭孟蛟</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>情况描述变化</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>5</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>北京大学第三医院</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>心内科</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>唐熠达</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
-        <v>1</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>主任对产品感兴趣，明确需求，需要再沟通</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>郭孟蛟</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>情况描述变化</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>6</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>北京博爱医院</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>北京东信祥和科贸</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>急诊</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>何威</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
-        <v>1</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>何主任今年才上来的，科室本来有无创，跟代理商配合做工作</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>郭孟蛟</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>情况描述变化</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>7</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>北京博爱医院</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>北京东信祥和科贸</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>心内</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>王国栋</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>1</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>王主任比较感兴趣，给代理商配合做工作</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>郭孟蛟</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>新增</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>8</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>北京博爱医院</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>北京东信祥和科贸</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>麻醉</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>王强</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>2</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>王强主任报了两台无创</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>郭孟蛟</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>新增</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>9</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>北京广安门医院</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>心内</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>李军</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>主任对产品感兴趣，有需求</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>郭孟蛟</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>新增</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>10</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>北京朝阳医院</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>心内</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>陈穆雷</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>主任对产品感兴趣，需要进一步沟通</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>郭孟蛟</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>11</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>海淀妇幼保健院</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>北京冠昱合科技</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>麻醉</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>王雷</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>代理商跟副院长王雷沟通中</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>郭孟蛟</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>新增</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>1</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>中山大学第六医院</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>广州博翊</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>麻醉科</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>靳三庆</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
-        <v>1</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>主任已报采购申请等待审批</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>四季度</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>梁小东</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>预计招标时间变化</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>2</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>珠海中医院</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>广州博翊</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>麻醉科</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>杨勇</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>主任已报采购申请等待审批</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>四季度</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>梁小东</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>新增</t>
-        </is>
-      </c>
-      <c r="T66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>3</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>中山大学第一医院</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>广州博翊</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>麻醉科</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>黄文起</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
-        <v>2</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>目前医院还没启动采购</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>四季度</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>梁小东</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>预计招标时间变化</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>4</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>北方学院附属第一医院</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>石家庄初拓</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>麻醉科</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>李福龙</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
-        <v>1</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>已启动采购流程</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>四季度</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>梁小东</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>情况描述变化</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>5</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>河北省胸科医院</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>石家庄初拓</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>麻醉科</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>耿恩江</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>因为疫情原因，采购暂停</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>四季度</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>梁小东</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>6</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>唐山工人医院</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>石家庄初拓</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>ICU</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>刘阳</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
-        <v>2</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>主任已报采购申请等待审批</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>四季度</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>梁小东</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>预计招标时间变化</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>7</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>唐山工人医院</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>石家庄初拓</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>麻醉科</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>徐凯智</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
-        <v>2</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>主任更换，计划暂缓，做新主任工作</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>四季度</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>梁小东</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>8</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>沧州中心医院</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>石家庄初拓</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>麻醉科</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>单士强</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>主任已报采购申请等待审批</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>四季度</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>梁小东</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>新增</t>
-        </is>
-      </c>
-      <c r="T72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>1</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>东直门医院</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>麻醉</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>刘国凯</t>
-        </is>
-      </c>
-      <c r="G73" t="n">
-        <v>2</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>等待论证与招标</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
-        <v>23</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>50以上</t>
-        </is>
-      </c>
-      <c r="P73" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>IV.四季度</t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
           <t>段玉晶</t>
         </is>
       </c>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>2</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>东直门医院通州院区</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>重症</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>蔡阳平</t>
-        </is>
-      </c>
-      <c r="G74" t="n">
-        <v>1</v>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>进口论证还没走完，需要等走完才能开始采购</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
-        <v>23</v>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>50以上</t>
-        </is>
-      </c>
-      <c r="P74" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>IV.四季度</t>
-        </is>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>段玉晶</t>
-        </is>
-      </c>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>情况描述变化</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>3</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>金秋医院</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>麻醉</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>时伟兵</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>陆续开始采购，在第二批，根据设备科长说法，进口论证低于50是院内论证，等待采购。</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
-        <v>28</v>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>50以上</t>
-        </is>
-      </c>
-      <c r="P75" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>IV.四季度</t>
-        </is>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>段玉晶</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>情况描述变化</t>
-        </is>
-      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
